--- a/biology/Virologie/Milneviricetes/Milneviricetes.xlsx
+++ b/biology/Virologie/Milneviricetes/Milneviricetes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ophiovirus est un genre de virus, l'unique genre de la famille monotypique des Aspiviridae, de l’ordre des Serpentovirales et de la classe des Milneviricetes. Il comprend sept espèces. Ce sont des virus à ARN à simple brin à polarité négative qui infectent les plantes (phytovirus). Ce genre est classé dans le groupe V de la classification Baltimore.
 </t>
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille « Aspiviridae » dérive du terme latin  « aspis » (serpent ou vipère), en référence à la morphologie des virions, avec le suffixe   « -viridae » qui caractérise les noms de famille de virus[5].
-Le nom générique « Ophiovirus » dérive du grec ancien « ophis » (ὄφῐς), « serpent », en référence à la morphologie des virions,  suivi du suffixe   -virus  qui caractérise les noms de genres de virus[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille « Aspiviridae » dérive du terme latin  « aspis » (serpent ou vipère), en référence à la morphologie des virions, avec le suffixe   « -viridae » qui caractérise les noms de famille de virus.
+Le nom générique « Ophiovirus » dérive du grec ancien « ophis » (ὄφῐς), « serpent », en référence à la morphologie des virions,  suivi du suffixe   -virus  qui caractérise les noms de genres de virus.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (21 décembre 2020)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (21 décembre 2020) :
 Ophiovirus
 Blueberry mosaic associated ophiovirus
 Citrus psorosis ophiovirus (espèce-type)
